--- a/redirects.xlsx
+++ b/redirects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhanashri.bhagwan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD780629-D089-8349-A5A6-B3F0C16B2DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E142D3B1-AAD0-8D40-BE84-A779491C298F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{E9AE46A0-0AEC-894D-8DFF-452B4BBEBAA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>/testpage</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>Destination</t>
+  </si>
+  <si>
+    <t>/404</t>
+  </si>
+  <si>
+    <t>/contactus</t>
+  </si>
+  <si>
+    <t>/home</t>
   </si>
 </sst>
 </file>
@@ -63,12 +72,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,28 +415,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA301C8-311C-5A40-B61A-86D67161A92F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/redirects.xlsx
+++ b/redirects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhanashri.bhagwan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E142D3B1-AAD0-8D40-BE84-A779491C298F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785C1AEB-D1D1-AD41-96CA-00A1B5CB2BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{E9AE46A0-0AEC-894D-8DFF-452B4BBEBAA5}"/>
   </bookViews>
@@ -56,17 +56,25 @@
     <t>/contactus</t>
   </si>
   <si>
-    <t>/home</t>
+    <t>https://www.google.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,14 +103,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -418,10 +429,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -452,11 +466,14 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{FA90F560-D77A-2D4E-B7AA-E453BA5CA1CE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/redirects.xlsx
+++ b/redirects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhanashri.bhagwan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785C1AEB-D1D1-AD41-96CA-00A1B5CB2BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA49E95B-1C50-6142-A22E-56426D9A38D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{E9AE46A0-0AEC-894D-8DFF-452B4BBEBAA5}"/>
   </bookViews>
@@ -53,10 +53,10 @@
     <t>/404</t>
   </si>
   <si>
-    <t>/contactus</t>
-  </si>
-  <si>
     <t>https://www.google.com</t>
+  </si>
+  <si>
+    <t>https://main--franklindemo--dhanashrideshpande.hlx.live/contactus</t>
   </si>
 </sst>
 </file>
@@ -429,11 +429,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="58.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -463,16 +464,17 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{FA90F560-D77A-2D4E-B7AA-E453BA5CA1CE}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{92BD48B4-E2C2-7B4C-89FF-1F8C6896EA92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
